--- a/Relay Shield/Bill of Materials/rshield-bom-v1-131006.xlsx
+++ b/Relay Shield/Bill of Materials/rshield-bom-v1-131006.xlsx
@@ -1625,7 +1625,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <f ca="1">TODAY()</f>
-        <v>41553</v>
+        <v>41554</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -2392,7 +2392,7 @@
   <dimension ref="A2:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:G15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
